--- a/Documents/Error Document.xlsx
+++ b/Documents/Error Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7980F37-81CA-427A-9272-830B1496E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE26EA2-D677-48CC-923A-EB855D37AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Error Number</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Err0</t>
+  </si>
+  <si>
+    <t>Err1</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -369,22 +375,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="106.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="106.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -394,10 +401,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Error Document.xlsx
+++ b/Documents/Error Document.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youssry\LAST1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE26EA2-D677-48CC-923A-EB855D37AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE991D8B-28F3-49E9-BAA2-051B6C6D2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Errors" sheetId="1" r:id="rId1"/>
+    <sheet name="Warnings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>Error Number</t>
   </si>
@@ -36,20 +48,245 @@
     <t>sent by Hardware</t>
   </si>
   <si>
-    <t>Err0</t>
-  </si>
-  <si>
-    <t>Err1</t>
-  </si>
-  <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>CNClimitCross</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>Fixation_main.cpp</t>
+  </si>
+  <si>
+    <t>WrongFcnCall</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>if Motor moves distance bigger than CNC max dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if input argument for fcn was unexpected like num = 3</t>
+  </si>
+  <si>
+    <t>CNCOverDistance</t>
+  </si>
+  <si>
+    <t>if Motor moves distance bigger than required distance during Homing process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if fixation command given and already motor inside foam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sent by </t>
+  </si>
+  <si>
+    <t>Wr200</t>
+  </si>
+  <si>
+    <t>UnexpectedWoodtouch</t>
+  </si>
+  <si>
+    <t>Unexpected touch for side wood</t>
+  </si>
+  <si>
+    <t>Wr201</t>
+  </si>
+  <si>
+    <t>Wr202</t>
+  </si>
+  <si>
+    <t>Wr203</t>
+  </si>
+  <si>
+    <t>Wr204</t>
+  </si>
+  <si>
+    <t>WrWrongFcnCall</t>
+  </si>
+  <si>
+    <t>CNCSensorTestMode.cpp</t>
+  </si>
+  <si>
+    <t>CNCMoveMotorsMode.cpp</t>
+  </si>
+  <si>
+    <t>Wr205</t>
+  </si>
+  <si>
+    <t>Wr206</t>
+  </si>
+  <si>
+    <t>ERR210</t>
+  </si>
+  <si>
+    <t>Wr211</t>
+  </si>
+  <si>
+    <t>ERR212</t>
+  </si>
+  <si>
+    <t>ERR214</t>
+  </si>
+  <si>
+    <t>Wr213</t>
+  </si>
+  <si>
+    <t>GRBL_Sender.cpp</t>
+  </si>
+  <si>
+    <t>First trail for open file failed</t>
+  </si>
+  <si>
+    <t>failed to open file for second time</t>
+  </si>
+  <si>
+    <t>Resend last line of error</t>
+  </si>
+  <si>
+    <t>UnExpected Response</t>
+  </si>
+  <si>
+    <t>Warning Number</t>
+  </si>
+  <si>
+    <t>ERR207</t>
+  </si>
+  <si>
+    <t>ERR208</t>
+  </si>
+  <si>
+    <t>ERR209</t>
+  </si>
+  <si>
+    <t>ERR215</t>
+  </si>
+  <si>
+    <t>ERR217</t>
+  </si>
+  <si>
+    <t>ERR218</t>
+  </si>
+  <si>
+    <t>ERR219</t>
+  </si>
+  <si>
+    <t>ERR220</t>
+  </si>
+  <si>
+    <t>ERR221</t>
+  </si>
+  <si>
+    <t>ERR222</t>
+  </si>
+  <si>
+    <t>ERR223</t>
+  </si>
+  <si>
+    <t>ERR224</t>
+  </si>
+  <si>
+    <t>ERR225</t>
+  </si>
+  <si>
+    <t>ERR226</t>
+  </si>
+  <si>
+    <t>ERR227</t>
+  </si>
+  <si>
+    <t>ERR228</t>
+  </si>
+  <si>
+    <t>ERR229</t>
+  </si>
+  <si>
+    <t>ERR230</t>
+  </si>
+  <si>
+    <t>ERR231</t>
+  </si>
+  <si>
+    <t>CNC.ino</t>
+  </si>
+  <si>
+    <t>GRBL_Control.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid function name </t>
+  </si>
+  <si>
+    <t>invalid or unexpected CNC_SENSOR_PAGE value</t>
+  </si>
+  <si>
+    <t>Motion commands are invalid here (Foam Side Plate)</t>
+  </si>
+  <si>
+    <t>Motion commands are invalid here (Foam Fixation)</t>
+  </si>
+  <si>
+    <t>The motor speed mode value is invalid or out of range</t>
+  </si>
+  <si>
+    <t>An invalid jog speed mode was requested</t>
+  </si>
+  <si>
+    <t>Received error response from GRBL_Control</t>
+  </si>
+  <si>
+    <t>Head G1 Z-axis upper limit sensor triggered during operation</t>
+  </si>
+  <si>
+    <t>Head G1 Z-axis lower limit sensor triggered during operation</t>
+  </si>
+  <si>
+    <t>Head G2 Z-axis upper limit sensor triggered during operation</t>
+  </si>
+  <si>
+    <t>Head G2 Z-axis lower limit sensor triggered during operation</t>
+  </si>
+  <si>
+    <t>Frame–Fixation G1 Y-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>Frame–Fixation G2 Y-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>Fixation–Head G1 Y-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>Fixation–Head G2 Y-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>Head–Frame G1 Y-axis collision sensor 1 triggered</t>
+  </si>
+  <si>
+    <t>Head–Frame G1 Y-axis collision sensor 2 triggered</t>
+  </si>
+  <si>
+    <t>Head–Frame G2 Y-axis collision sensor 1 triggered</t>
+  </si>
+  <si>
+    <t>Head–Frame G2 Y-axis collision sensor 2 triggered</t>
+  </si>
+  <si>
+    <t>Frame–G1 X-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>G1–G2 X-axis collision/limit sensor triggered</t>
+  </si>
+  <si>
+    <t>G2–Frame X-axis collision/limit sensor triggered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +294,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,16 +341,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,47 +638,610 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="106.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="2" width="24.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D653596-78AB-4B35-8995-F77178A78AD2}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>